--- a/salida/reportes_Nuevo Siglo_valorizada.xlsx
+++ b/salida/reportes_Nuevo Siglo_valorizada.xlsx
@@ -1986,19 +1986,19 @@
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="AF2">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="AG2">
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>87.212125</v>
+        <v>43.6060625</v>
       </c>
       <c r="AI2">
-        <v>112.129875</v>
+        <v>56.0649375</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -2102,19 +2102,19 @@
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="AF3">
-        <v>436</v>
+        <v>218</v>
       </c>
       <c r="AG3">
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>74.20627500000001</v>
+        <v>37.1031375</v>
       </c>
       <c r="AI3">
-        <v>294.1266900000001</v>
+        <v>147.063345</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -2218,19 +2218,19 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="AF4">
-        <v>414</v>
+        <v>207</v>
       </c>
       <c r="AG4">
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>25.62274</v>
+        <v>12.81137</v>
       </c>
       <c r="AI4">
-        <v>155.99727</v>
+        <v>77.99863500000001</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -2334,19 +2334,19 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>696</v>
+        <v>348</v>
       </c>
       <c r="AF5">
-        <v>454</v>
+        <v>227</v>
       </c>
       <c r="AG5">
         <v>142</v>
       </c>
       <c r="AH5">
-        <v>765.6191400000001</v>
+        <v>382.8095700000001</v>
       </c>
       <c r="AI5">
-        <v>499.4124850000001</v>
+        <v>249.7062425</v>
       </c>
       <c r="AJ5">
         <v>156.203905</v>
@@ -2450,19 +2450,19 @@
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>208</v>
+        <v>104</v>
       </c>
       <c r="AF6">
-        <v>1730</v>
+        <v>865</v>
       </c>
       <c r="AG6">
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>223.74924</v>
+        <v>111.87462</v>
       </c>
       <c r="AI6">
-        <v>1860.991275</v>
+        <v>930.4956375</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -7554,19 +7554,19 @@
         <v>463</v>
       </c>
       <c r="AE50">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="AF50">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="AG50">
         <v>0</v>
       </c>
       <c r="AH50">
-        <v>-71.78124</v>
+        <v>-35.89062</v>
       </c>
       <c r="AI50">
-        <v>251.23434</v>
+        <v>125.61717</v>
       </c>
       <c r="AJ50">
         <v>0</v>
@@ -8366,19 +8366,19 @@
         <v>0</v>
       </c>
       <c r="AE57">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AF57">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AG57">
         <v>5</v>
       </c>
       <c r="AH57">
-        <v>77.875776</v>
+        <v>38.937888</v>
       </c>
       <c r="AI57">
-        <v>129.79296</v>
+        <v>64.89648</v>
       </c>
       <c r="AJ57">
         <v>64.89648</v>
@@ -8482,19 +8482,19 @@
         <v>0</v>
       </c>
       <c r="AE58">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AF58">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AG58">
         <v>5</v>
       </c>
       <c r="AH58">
-        <v>129.79296</v>
+        <v>64.89648</v>
       </c>
       <c r="AI58">
-        <v>181.710144</v>
+        <v>90.85507199999999</v>
       </c>
       <c r="AJ58">
         <v>64.89648</v>
@@ -9294,19 +9294,19 @@
         <v>462</v>
       </c>
       <c r="AE65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF65">
-        <v>636</v>
+        <v>318</v>
       </c>
       <c r="AG65">
         <v>0</v>
       </c>
       <c r="AH65">
-        <v>12.9511712</v>
+        <v>6.475585599999999</v>
       </c>
       <c r="AI65">
-        <v>4118.472441599999</v>
+        <v>2059.2362208</v>
       </c>
       <c r="AJ65">
         <v>0</v>
@@ -9410,19 +9410,19 @@
         <v>465</v>
       </c>
       <c r="AE66">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AF66">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AG66">
         <v>10</v>
       </c>
       <c r="AH66">
-        <v>103.579164</v>
+        <v>51.789582</v>
       </c>
       <c r="AI66">
-        <v>71.708652</v>
+        <v>35.854326</v>
       </c>
       <c r="AJ66">
         <v>39.83814</v>
@@ -9526,19 +9526,19 @@
         <v>465</v>
       </c>
       <c r="AE67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF67">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AG67">
         <v>0</v>
       </c>
       <c r="AH67">
-        <v>10.26225825</v>
+        <v>5.131129125</v>
       </c>
       <c r="AI67">
-        <v>102.6225825</v>
+        <v>51.31129125</v>
       </c>
       <c r="AJ67">
         <v>0</v>
@@ -9758,19 +9758,19 @@
         <v>463</v>
       </c>
       <c r="AE69">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AF69">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AG69">
         <v>0</v>
       </c>
       <c r="AH69">
-        <v>51.02305200000001</v>
+        <v>25.511526</v>
       </c>
       <c r="AI69">
-        <v>204.092208</v>
+        <v>102.046104</v>
       </c>
       <c r="AJ69">
         <v>0</v>
@@ -10106,19 +10106,19 @@
         <v>465</v>
       </c>
       <c r="AE72">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AF72">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="AG72">
         <v>9</v>
       </c>
       <c r="AH72">
-        <v>123.7747016</v>
+        <v>61.8873508</v>
       </c>
       <c r="AI72">
-        <v>303.8106312</v>
+        <v>151.9053156</v>
       </c>
       <c r="AJ72">
         <v>50.6351052</v>
@@ -10222,19 +10222,19 @@
         <v>463</v>
       </c>
       <c r="AE73">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="AF73">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="AG73">
         <v>25</v>
       </c>
       <c r="AH73">
-        <v>657.1158749999998</v>
+        <v>328.5579374999999</v>
       </c>
       <c r="AI73">
-        <v>219.038625</v>
+        <v>109.5193125</v>
       </c>
       <c r="AJ73">
         <v>109.5193125</v>
@@ -10338,19 +10338,19 @@
         <v>0</v>
       </c>
       <c r="AE74">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="AF74">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AG74">
         <v>20</v>
       </c>
       <c r="AH74">
-        <v>346.5910019999999</v>
+        <v>173.295501</v>
       </c>
       <c r="AI74">
-        <v>75.34586999999999</v>
+        <v>37.672935</v>
       </c>
       <c r="AJ74">
         <v>150.69174</v>
@@ -10454,19 +10454,19 @@
         <v>464</v>
       </c>
       <c r="AE75">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="AF75">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="AG75">
         <v>20</v>
       </c>
       <c r="AH75">
-        <v>557.19064</v>
+        <v>278.59532</v>
       </c>
       <c r="AI75">
-        <v>272.66776</v>
+        <v>136.33388</v>
       </c>
       <c r="AJ75">
         <v>118.5512</v>
@@ -10686,19 +10686,19 @@
         <v>0</v>
       </c>
       <c r="AE77">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AF77">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AG77">
         <v>7</v>
       </c>
       <c r="AH77">
-        <v>124.4672</v>
+        <v>62.2336</v>
       </c>
       <c r="AI77">
-        <v>466.752</v>
+        <v>233.376</v>
       </c>
       <c r="AJ77">
         <v>108.9088</v>
@@ -10802,19 +10802,19 @@
         <v>0</v>
       </c>
       <c r="AE78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF78">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AG78">
         <v>4</v>
       </c>
       <c r="AH78">
-        <v>14.7562176</v>
+        <v>7.3781088</v>
       </c>
       <c r="AI78">
-        <v>177.0746112</v>
+        <v>88.5373056</v>
       </c>
       <c r="AJ78">
         <v>29.5124352</v>
@@ -10918,19 +10918,19 @@
         <v>0</v>
       </c>
       <c r="AE79">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AF79">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AG79">
         <v>21</v>
       </c>
       <c r="AH79">
-        <v>932.18718</v>
+        <v>310.72906</v>
       </c>
       <c r="AI79">
-        <v>3728.74872</v>
+        <v>1242.91624</v>
       </c>
       <c r="AJ79">
         <v>1305.062052</v>
@@ -11034,19 +11034,19 @@
         <v>464</v>
       </c>
       <c r="AE80">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AF80">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AG80">
         <v>0</v>
       </c>
       <c r="AH80">
-        <v>39.78816</v>
+        <v>19.89408</v>
       </c>
       <c r="AI80">
-        <v>29.84112</v>
+        <v>14.92056</v>
       </c>
       <c r="AJ80">
         <v>0</v>
@@ -11150,19 +11150,19 @@
         <v>465</v>
       </c>
       <c r="AE81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF81">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AG81">
         <v>0</v>
       </c>
       <c r="AH81">
-        <v>25.918251</v>
+        <v>12.9591255</v>
       </c>
       <c r="AI81">
-        <v>155.509506</v>
+        <v>77.75475299999999</v>
       </c>
       <c r="AJ81">
         <v>0</v>
@@ -11266,19 +11266,19 @@
         <v>462</v>
       </c>
       <c r="AE82">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AF82">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AG82">
         <v>0</v>
       </c>
       <c r="AH82">
-        <v>47.10037</v>
+        <v>23.550185</v>
       </c>
       <c r="AI82">
-        <v>47.10037</v>
+        <v>23.550185</v>
       </c>
       <c r="AJ82">
         <v>0</v>
@@ -11730,19 +11730,19 @@
         <v>463</v>
       </c>
       <c r="AE86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF86">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AG86">
         <v>0</v>
       </c>
       <c r="AH86">
-        <v>6.531263999999999</v>
+        <v>3.265632</v>
       </c>
       <c r="AI86">
-        <v>39.18758399999999</v>
+        <v>19.593792</v>
       </c>
       <c r="AJ86">
         <v>0</v>
@@ -11846,19 +11846,19 @@
         <v>463</v>
       </c>
       <c r="AE87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF87">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AG87">
         <v>0</v>
       </c>
       <c r="AH87">
-        <v>32.07628</v>
+        <v>16.03814</v>
       </c>
       <c r="AI87">
-        <v>176.41954</v>
+        <v>88.20977000000001</v>
       </c>
       <c r="AJ87">
         <v>0</v>
@@ -11962,19 +11962,19 @@
         <v>465</v>
       </c>
       <c r="AE88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF88">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="AG88">
         <v>0</v>
       </c>
       <c r="AH88">
-        <v>26.002282</v>
+        <v>13.001141</v>
       </c>
       <c r="AI88">
-        <v>364.0319479999999</v>
+        <v>182.015974</v>
       </c>
       <c r="AJ88">
         <v>0</v>
@@ -12078,7 +12078,7 @@
         <v>462</v>
       </c>
       <c r="AE89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF89">
         <v>0</v>
@@ -12087,7 +12087,7 @@
         <v>0</v>
       </c>
       <c r="AH89">
-        <v>10.781978</v>
+        <v>5.390988999999999</v>
       </c>
       <c r="AI89">
         <v>0</v>
@@ -12194,19 +12194,19 @@
         <v>462</v>
       </c>
       <c r="AE90">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="AF90">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="AG90">
         <v>50</v>
       </c>
       <c r="AH90">
-        <v>859.0191120000002</v>
+        <v>429.5095560000001</v>
       </c>
       <c r="AI90">
-        <v>214.754778</v>
+        <v>107.377389</v>
       </c>
       <c r="AJ90">
         <v>298.270525</v>
@@ -12310,19 +12310,19 @@
         <v>0</v>
       </c>
       <c r="AE91">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AF91">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AG91">
         <v>75</v>
       </c>
       <c r="AH91">
-        <v>1305.6612</v>
+        <v>652.8305999999999</v>
       </c>
       <c r="AI91">
-        <v>1305.6612</v>
+        <v>652.8305999999999</v>
       </c>
       <c r="AJ91">
         <v>1224.057375</v>
@@ -12774,19 +12774,19 @@
         <v>462</v>
       </c>
       <c r="AE95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF95">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AG95">
         <v>0</v>
       </c>
       <c r="AH95">
-        <v>8.955702</v>
+        <v>4.477851</v>
       </c>
       <c r="AI95">
-        <v>35.822808</v>
+        <v>17.911404</v>
       </c>
       <c r="AJ95">
         <v>0</v>
@@ -13122,19 +13122,19 @@
         <v>464</v>
       </c>
       <c r="AE98">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AF98">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AG98">
         <v>20</v>
       </c>
       <c r="AH98">
-        <v>245.026049</v>
+        <v>122.5130245</v>
       </c>
       <c r="AI98">
-        <v>172.959564</v>
+        <v>86.47978199999999</v>
       </c>
       <c r="AJ98">
         <v>144.13297</v>
@@ -13470,19 +13470,19 @@
         <v>465</v>
       </c>
       <c r="AE101">
+        <v>3</v>
+      </c>
+      <c r="AF101">
         <v>6</v>
-      </c>
-      <c r="AF101">
-        <v>12</v>
       </c>
       <c r="AG101">
         <v>1</v>
       </c>
       <c r="AH101">
+        <v>47.54467349999999</v>
+      </c>
+      <c r="AI101">
         <v>95.08934699999999</v>
-      </c>
-      <c r="AI101">
-        <v>190.178694</v>
       </c>
       <c r="AJ101">
         <v>15.8482245</v>
@@ -13586,19 +13586,19 @@
         <v>465</v>
       </c>
       <c r="AE102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF102">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AG102">
         <v>3</v>
       </c>
       <c r="AH102">
-        <v>54.747973</v>
+        <v>27.3739865</v>
       </c>
       <c r="AI102">
-        <v>602.227703</v>
+        <v>301.1138515</v>
       </c>
       <c r="AJ102">
         <v>82.1219595</v>
@@ -13702,19 +13702,19 @@
         <v>463</v>
       </c>
       <c r="AE103">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AF103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG103">
         <v>0</v>
       </c>
       <c r="AH103">
-        <v>203.285898</v>
+        <v>101.642949</v>
       </c>
       <c r="AI103">
-        <v>45.17464399999999</v>
+        <v>22.587322</v>
       </c>
       <c r="AJ103">
         <v>0</v>
@@ -13934,19 +13934,19 @@
         <v>463</v>
       </c>
       <c r="AE105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG105">
         <v>0</v>
       </c>
       <c r="AH105">
-        <v>36.600915</v>
+        <v>18.3004575</v>
       </c>
       <c r="AI105">
-        <v>36.600915</v>
+        <v>18.3004575</v>
       </c>
       <c r="AJ105">
         <v>0</v>
@@ -14050,19 +14050,19 @@
         <v>464</v>
       </c>
       <c r="AE106">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF106">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AG106">
         <v>0</v>
       </c>
       <c r="AH106">
-        <v>13.88288</v>
+        <v>6.941439999999999</v>
       </c>
       <c r="AI106">
-        <v>20.82432</v>
+        <v>10.41216</v>
       </c>
       <c r="AJ106">
         <v>0</v>
@@ -14282,7 +14282,7 @@
         <v>0</v>
       </c>
       <c r="AE108">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AF108">
         <v>0</v>
@@ -14291,7 +14291,7 @@
         <v>0</v>
       </c>
       <c r="AH108">
-        <v>203.759297</v>
+        <v>101.8796485</v>
       </c>
       <c r="AI108">
         <v>0</v>
@@ -14398,19 +14398,19 @@
         <v>465</v>
       </c>
       <c r="AE109">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AF109">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AG109">
         <v>0</v>
       </c>
       <c r="AH109">
-        <v>143.28552</v>
+        <v>47.76183999999999</v>
       </c>
       <c r="AI109">
-        <v>477.6184</v>
+        <v>159.2061333333333</v>
       </c>
       <c r="AJ109">
         <v>0</v>
@@ -14514,19 +14514,19 @@
         <v>463</v>
       </c>
       <c r="AE110">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AF110">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AG110">
         <v>0</v>
       </c>
       <c r="AH110">
-        <v>34.49504</v>
+        <v>17.24752</v>
       </c>
       <c r="AI110">
-        <v>24.146528</v>
+        <v>12.073264</v>
       </c>
       <c r="AJ110">
         <v>0</v>

--- a/salida/reportes_Nuevo Siglo_valorizada.xlsx
+++ b/salida/reportes_Nuevo Siglo_valorizada.xlsx
@@ -127,7 +127,7 @@
     <t>COMPAÑÍA</t>
   </si>
   <si>
-    <t>Abr 2019</t>
+    <t>Abr. 19</t>
   </si>
   <si>
     <t>201904</t>
